--- a/output_validation/0a_pin_female_percentage.xlsx
+++ b/output_validation/0a_pin_female_percentage.xlsx
@@ -480,13 +480,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>0.7636430006853658</v>
+        <v>0.6233075474039204</v>
       </c>
       <c r="D2">
-        <v>0.1576238105360946</v>
+        <v>0.1454364693858671</v>
       </c>
       <c r="E2">
-        <v>0.07873318877853965</v>
+        <v>0.2312559832102125</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -500,16 +500,16 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>0.3434720406723505</v>
+        <v>0.4261304908460836</v>
       </c>
       <c r="D3">
-        <v>0.6160385043040554</v>
+        <v>0.5099963733827679</v>
       </c>
       <c r="E3">
-        <v>0.01763046118375694</v>
+        <v>0.06387313577114838</v>
       </c>
       <c r="F3">
-        <v>0.02285899383983707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -520,16 +520,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.4831488860607837</v>
+        <v>0.8331283547927741</v>
       </c>
       <c r="D4">
-        <v>0.4668930084929387</v>
+        <v>0.1668716452072259</v>
       </c>
       <c r="E4">
-        <v>0.01852596257794513</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.03143214286833273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -540,16 +540,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.2255899434957103</v>
+        <v>0.2045710607114264</v>
       </c>
       <c r="D5">
-        <v>0.7333886172009896</v>
+        <v>0.7290276133280614</v>
       </c>
       <c r="E5">
-        <v>0.0283353226488051</v>
+        <v>0.06640132596051201</v>
       </c>
       <c r="F5">
-        <v>0.01268611665449509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -560,16 +560,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.01053189900464389</v>
+        <v>0.1170379062545036</v>
       </c>
       <c r="D6">
-        <v>0.8701968506970117</v>
+        <v>0.8829620937454963</v>
       </c>
       <c r="E6">
-        <v>0.02698627938433926</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09228497091400525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -580,16 +580,16 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.3666699756698283</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5491365975327455</v>
+        <v>0.7866117922291094</v>
       </c>
       <c r="E7">
-        <v>0.04990483938450553</v>
+        <v>0.2133882077708907</v>
       </c>
       <c r="F7">
-        <v>0.03428858741292071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -600,13 +600,13 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.665636722421267</v>
+        <v>0.8524733423944143</v>
       </c>
       <c r="D8">
-        <v>0.2580981627597926</v>
+        <v>0.07031303662383838</v>
       </c>
       <c r="E8">
-        <v>0.07626511481894054</v>
+        <v>0.07721362098174735</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -620,16 +620,16 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.4379820665480078</v>
+        <v>0.2470435615178573</v>
       </c>
       <c r="D9">
-        <v>0.4694785473927623</v>
+        <v>0.7529564384821427</v>
       </c>
       <c r="E9">
-        <v>0.06501086585799726</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02752852020123246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -640,16 +640,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.4441367798599228</v>
+        <v>0.224052881107731</v>
       </c>
       <c r="D10">
-        <v>0.3744393659934109</v>
+        <v>0.6876035718210637</v>
       </c>
       <c r="E10">
-        <v>0.0644050735709525</v>
+        <v>0.08834354707120523</v>
       </c>
       <c r="F10">
-        <v>0.1170187805757138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -660,16 +660,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.3193362133150582</v>
+        <v>0.2927691716935925</v>
       </c>
       <c r="D11">
-        <v>0.5546956149147714</v>
+        <v>0.5620070859768697</v>
       </c>
       <c r="E11">
-        <v>0.1139084598878584</v>
+        <v>0.07695976693271135</v>
       </c>
       <c r="F11">
-        <v>0.01205971188231214</v>
+        <v>0.06826397539682644</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -680,13 +680,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.50562203170395</v>
+        <v>0.2618823274983394</v>
       </c>
       <c r="D12">
-        <v>0.4512158675159272</v>
+        <v>0.7381176725016606</v>
       </c>
       <c r="E12">
-        <v>0.0431621007801227</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.1624601990088694</v>
+        <v>0.1384475577869906</v>
       </c>
       <c r="D13">
-        <v>0.8132757498888581</v>
+        <v>0.8615524422130094</v>
       </c>
       <c r="E13">
-        <v>0.02426405110227242</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -753,16 +753,16 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>0.3605762564738771</v>
+        <v>0.3725793963747561</v>
       </c>
       <c r="D2">
-        <v>0.5574700014763981</v>
+        <v>0.5057712110669266</v>
       </c>
       <c r="E2">
-        <v>0.0763183671935062</v>
+        <v>0.1216493925583172</v>
       </c>
       <c r="F2">
-        <v>0.00563537485621851</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -806,16 +806,16 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>0.7236896900952252</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.2392081879336686</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02425551390122181</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.01284660806988456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -826,13 +826,13 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>0.2865024362954217</v>
+        <v>0.3058367755965674</v>
       </c>
       <c r="D3">
-        <v>0.6836879450220117</v>
+        <v>0.6445471855862365</v>
       </c>
       <c r="E3">
-        <v>0.02980961868256649</v>
+        <v>0.0496160388171961</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -846,13 +846,13 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>0.5184680287850673</v>
+        <v>0.7120893892863492</v>
       </c>
       <c r="D4">
-        <v>0.4163491503321772</v>
+        <v>0.2879106107136508</v>
       </c>
       <c r="E4">
-        <v>0.06518282088275558</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -866,16 +866,16 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>0.3141882758702438</v>
+        <v>0.1798401574664472</v>
       </c>
       <c r="D5">
-        <v>0.6605474775397754</v>
+        <v>0.7307087938458432</v>
       </c>
       <c r="E5">
-        <v>0.01981639618841873</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.005447850401562023</v>
+        <v>0.08945104868770958</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -886,13 +886,13 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0.2568598759208515</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6895390258600377</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.05360109821911088</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>0.6559253601089992</v>
+        <v>0.4902601885568573</v>
       </c>
       <c r="D7">
-        <v>0.2882136591683537</v>
+        <v>0.4413829698821847</v>
       </c>
       <c r="E7">
-        <v>0.0558609807226471</v>
+        <v>0.06835684156095806</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>0.8108905460848412</v>
+        <v>0.905958133748504</v>
       </c>
       <c r="D8">
-        <v>0.1891094539151588</v>
+        <v>0.09404186625149602</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>0.7323658671158727</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.1779369828077599</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0896971500763676</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -966,10 +966,10 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0.7714299607478479</v>
+        <v>0.8009373528149383</v>
       </c>
       <c r="D10">
-        <v>0.2285700392521522</v>
+        <v>0.1990626471850619</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>0.7596800349328485</v>
+        <v>0.8684738344660423</v>
       </c>
       <c r="D11">
-        <v>0.1756559775812145</v>
+        <v>0.1315261655339577</v>
       </c>
       <c r="E11">
-        <v>0.0515602845440673</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0131037029418697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1006,16 +1006,16 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>0.7128105267199996</v>
+        <v>0.9144449887807446</v>
       </c>
       <c r="D12">
-        <v>0.1403826364618404</v>
+        <v>0.08555501121925543</v>
       </c>
       <c r="E12">
-        <v>0.08227568805469489</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0645311487634652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1026,13 +1026,13 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>0.4808454996810909</v>
+        <v>0.5399536171947253</v>
       </c>
       <c r="D13">
-        <v>0.4770717900946745</v>
+        <v>0.4600463828052747</v>
       </c>
       <c r="E13">
-        <v>0.04208271022423451</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>22</v>
       </c>
       <c r="C14">
-        <v>0.6957578242286829</v>
+        <v>0.5607708017100445</v>
       </c>
       <c r="D14">
-        <v>0.2236820162678014</v>
+        <v>0.3443000699756158</v>
       </c>
       <c r="E14">
-        <v>0.08056015950351567</v>
+        <v>0.09492912831433981</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>0.8475270353110149</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.1283580034696053</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0241149612193799</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1086,16 +1086,16 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.4973199688330368</v>
+        <v>0.5552593172167583</v>
       </c>
       <c r="D16">
-        <v>0.4071193621253184</v>
+        <v>0.4447406827832417</v>
       </c>
       <c r="E16">
-        <v>0.08437489747912612</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01118577156251888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1106,13 +1106,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.8660838637861521</v>
+        <v>0.8795973730865113</v>
       </c>
       <c r="D17">
-        <v>0.1017105875734995</v>
+        <v>0.1204026269134886</v>
       </c>
       <c r="E17">
-        <v>0.03220554864034835</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1126,16 +1126,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>0.9255845165932146</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.04550899172814852</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01723777374349997</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01166871793513673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1146,13 +1146,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.8751637330175982</v>
+        <v>0.3986657240056399</v>
       </c>
       <c r="D19">
-        <v>0.06463008325310399</v>
+        <v>0.6013342759943602</v>
       </c>
       <c r="E19">
-        <v>0.06020618372929779</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>23</v>
       </c>
       <c r="C2">
-        <v>0.6109849491331182</v>
+        <v>0.5692232389401374</v>
       </c>
       <c r="D2">
-        <v>0.3504399005575994</v>
+        <v>0.4307767610598627</v>
       </c>
       <c r="E2">
-        <v>0.03857515030928242</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>0.1389284526796424</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7770962716257869</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.02956559494558583</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.05440968074898475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1239,10 +1239,10 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.5328494875980573</v>
+        <v>0.6978790507982313</v>
       </c>
       <c r="D4">
-        <v>0.4671505124019426</v>
+        <v>0.3021209492017687</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.448486830414843</v>
+        <v>0.4784901315231759</v>
       </c>
       <c r="D5">
-        <v>0.5272815330456194</v>
+        <v>0.5215098684768241</v>
       </c>
       <c r="E5">
-        <v>0.02423163653953751</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>0.07808646459031106</v>
+        <v>0.218644397981921</v>
       </c>
       <c r="D6">
-        <v>0.921913535409689</v>
+        <v>0.7813556020180789</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>0.6683280015228639</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.2918512553295026</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03982074314763352</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1319,13 +1319,13 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.5370462916961699</v>
+        <v>0.6998205442627634</v>
       </c>
       <c r="D8">
-        <v>0.4434397190123373</v>
+        <v>0.3001794557372366</v>
       </c>
       <c r="E8">
-        <v>0.0195139892914926</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>0.2290400219628516</v>
+        <v>0.1968054225992155</v>
       </c>
       <c r="D9">
-        <v>0.5782148690627021</v>
+        <v>0.5775689692422397</v>
       </c>
       <c r="E9">
-        <v>0.1429641772008985</v>
+        <v>0.2256256081585449</v>
       </c>
       <c r="F9">
-        <v>0.04978093177354764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1359,16 +1359,16 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.5683882818605211</v>
+        <v>0.5056236031899219</v>
       </c>
       <c r="D10">
-        <v>0.2645865320080541</v>
+        <v>0.3261212061011876</v>
       </c>
       <c r="E10">
-        <v>0.1565777249880679</v>
+        <v>0.1682551907088905</v>
       </c>
       <c r="F10">
-        <v>0.01044746114335675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1379,16 +1379,16 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.4042210626890028</v>
+        <v>0.6291985348156217</v>
       </c>
       <c r="D11">
-        <v>0.5226942840398715</v>
+        <v>0.3708014651843783</v>
       </c>
       <c r="E11">
-        <v>0.06707184162707072</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.006012811644054996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1399,13 +1399,13 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>0.6195880185893339</v>
+        <v>0.737304874903086</v>
       </c>
       <c r="D12">
-        <v>0.1845302652493898</v>
+        <v>0.2626951250969139</v>
       </c>
       <c r="E12">
-        <v>0.1958817161612764</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1419,16 +1419,16 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>0.3339541637595115</v>
+        <v>0.3769182330066921</v>
       </c>
       <c r="D13">
-        <v>0.5559098893092997</v>
+        <v>0.4414021532518742</v>
       </c>
       <c r="E13">
-        <v>0.08007043750580958</v>
+        <v>0.1816796137414338</v>
       </c>
       <c r="F13">
-        <v>0.03006550942537912</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/0a_pin_female_percentage.xlsx
+++ b/output_validation/0a_pin_female_percentage.xlsx
@@ -17,75 +17,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>pop_group</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>idp</t>
   </si>
   <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
     <t>ndsp</t>
   </si>
   <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
   </si>
   <si>
     <t>ocap</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
   </si>
   <si>
     <t>ret</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +486,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0.6233075474039204</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1454364693858671</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.2312559832102125</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -497,16 +506,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>0.4261304908460836</v>
+        <v>0.1254404321559681</v>
       </c>
       <c r="D3">
-        <v>0.5099963733827679</v>
+        <v>0.7286618954187276</v>
       </c>
       <c r="E3">
-        <v>0.06387313577114838</v>
+        <v>0.1458976724253043</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -517,13 +526,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8331283547927741</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1668716452072259</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -537,19 +546,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.2045710607114264</v>
+        <v>0.6753386380964344</v>
       </c>
       <c r="D5">
-        <v>0.7290276133280614</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06640132596051201</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.3246613619035656</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -557,13 +566,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.1170379062545036</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8829620937454963</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -577,16 +586,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.6233075474039204</v>
       </c>
       <c r="D7">
-        <v>0.7866117922291094</v>
+        <v>0.1454364693858671</v>
       </c>
       <c r="E7">
-        <v>0.2133882077708907</v>
+        <v>0.2312559832102125</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -597,16 +606,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.8524733423944143</v>
+        <v>0.6233075474039204</v>
       </c>
       <c r="D8">
-        <v>0.07031303662383838</v>
+        <v>0.1454364693858671</v>
       </c>
       <c r="E8">
-        <v>0.07721362098174735</v>
+        <v>0.2312559832102125</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -617,16 +626,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0.2470435615178573</v>
+        <v>0.6233075474039204</v>
       </c>
       <c r="D9">
-        <v>0.7529564384821427</v>
+        <v>0.1454364693858671</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2312559832102125</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -637,16 +646,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>0.224052881107731</v>
+        <v>0.4261304908460836</v>
       </c>
       <c r="D10">
-        <v>0.6876035718210637</v>
+        <v>0.5099963733827679</v>
       </c>
       <c r="E10">
-        <v>0.08834354707120523</v>
+        <v>0.06387313577114838</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -657,19 +666,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>0.2927691716935925</v>
+        <v>0.4261304908460836</v>
       </c>
       <c r="D11">
-        <v>0.5620070859768697</v>
+        <v>0.5099963733827679</v>
       </c>
       <c r="E11">
-        <v>0.07695976693271135</v>
+        <v>0.06387313577114838</v>
       </c>
       <c r="F11">
-        <v>0.06826397539682644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -677,38 +686,18 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>0.2618823274983394</v>
+        <v>0.4261304908460836</v>
       </c>
       <c r="D12">
-        <v>0.7381176725016606</v>
+        <v>0.5099963733827679</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.06387313577114838</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>0.1384475577869906</v>
-      </c>
-      <c r="D13">
-        <v>0.8615524422130094</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -719,7 +708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,21 +736,101 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>0.1003499859916336</v>
+      </c>
+      <c r="D2">
+        <v>0.6443788858083428</v>
+      </c>
+      <c r="E2">
+        <v>0.2552711282000236</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <v>0.3725793963747561</v>
-      </c>
-      <c r="D2">
-        <v>0.5057712110669266</v>
-      </c>
-      <c r="E2">
-        <v>0.1216493925583172</v>
-      </c>
-      <c r="F2">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
@@ -772,7 +841,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -800,10 +869,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -820,19 +889,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>0.3058367755965674</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6445471855862365</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.0496160388171961</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -840,16 +909,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>0.7120893892863492</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2879106107136508</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -860,30 +929,30 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>0.1798401574664472</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7307087938458432</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.08945104868770958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -900,19 +969,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>0.4902601885568573</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.4413829698821847</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06835684156095806</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -920,16 +989,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>0.905958133748504</v>
+        <v>0.4190776228049733</v>
       </c>
       <c r="D8">
-        <v>0.09404186625149602</v>
+        <v>0.5809223771950267</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -940,16 +1009,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -960,16 +1029,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>0.8009373528149383</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.1990626471850619</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -980,16 +1049,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>0.8684738344660423</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.1315261655339577</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1000,16 +1069,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>0.9144449887807446</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.08555501121925543</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1020,16 +1089,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>0.5399536171947253</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.4600463828052747</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1040,19 +1109,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>0.5607708017100445</v>
+        <v>0.3058367755965674</v>
       </c>
       <c r="D14">
-        <v>0.3443000699756158</v>
+        <v>0.6445471855862365</v>
       </c>
       <c r="E14">
-        <v>0.09492912831433981</v>
+        <v>0.0496160388171961</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1060,19 +1129,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.3058367755965674</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.6445471855862365</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.0496160388171961</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1080,81 +1149,21 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>0.5552593172167583</v>
+        <v>0.3058367755965674</v>
       </c>
       <c r="D16">
-        <v>0.4447406827832417</v>
+        <v>0.6445471855862365</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0496160388171961</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>0.8795973730865113</v>
-      </c>
-      <c r="D17">
-        <v>0.1204026269134886</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>0.3986657240056399</v>
-      </c>
-      <c r="D19">
-        <v>0.6013342759943602</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
         <v>0</v>
       </c>
     </row>
@@ -1165,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1193,16 +1202,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>0.5692232389401374</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4307767610598627</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1216,13 +1225,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.5084460998831797</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.4915539001168203</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1233,16 +1242,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>0.6978790507982313</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3021209492017687</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1253,16 +1262,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>0.4784901315231759</v>
+        <v>0.9022016896552206</v>
       </c>
       <c r="D5">
-        <v>0.5215098684768241</v>
+        <v>0.09779831034477936</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1273,16 +1282,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>0.218644397981921</v>
+        <v>0.5079094701116023</v>
       </c>
       <c r="D6">
-        <v>0.7813556020180789</v>
+        <v>0.4920905298883979</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1293,16 +1302,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1313,16 +1322,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>0.6998205442627634</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.3001794557372366</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1333,19 +1342,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>0.1968054225992155</v>
+        <v>0.5692232389401374</v>
       </c>
       <c r="D9">
-        <v>0.5775689692422397</v>
+        <v>0.4307767610598627</v>
       </c>
       <c r="E9">
-        <v>0.2256256081585449</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1353,19 +1362,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>0.5056236031899219</v>
+        <v>0.5692232389401374</v>
       </c>
       <c r="D10">
-        <v>0.3261212061011876</v>
+        <v>0.4307767610598627</v>
       </c>
       <c r="E10">
-        <v>0.1682551907088905</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1373,16 +1382,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>0.6291985348156217</v>
+        <v>0.5692232389401374</v>
       </c>
       <c r="D11">
-        <v>0.3708014651843783</v>
+        <v>0.4307767610598627</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1393,16 +1402,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>0.737304874903086</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2626951250969139</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1413,21 +1422,41 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>0.3769182330066921</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4414021532518742</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0.1816796137414338</v>
+        <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
     </row>

--- a/output_validation/0a_pin_female_percentage.xlsx
+++ b/output_validation/0a_pin_female_percentage.xlsx
@@ -17,84 +17,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="27">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>pop_group</t>
   </si>
   <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
   </si>
   <si>
     <t>idp</t>
   </si>
   <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
     <t>ndsp</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
   </si>
   <si>
     <t>ret</t>
@@ -455,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,16 +477,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7636430006853658</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.1576238105360946</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.07873318877853965</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -506,19 +497,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0.1254404321559681</v>
+        <v>0.3434720406723505</v>
       </c>
       <c r="D3">
-        <v>0.7286618954187276</v>
+        <v>0.6160385043040554</v>
       </c>
       <c r="E3">
-        <v>0.1458976724253043</v>
+        <v>0.01763046118375694</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.02285899383983707</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -526,19 +517,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.4831488860607837</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.4668930084929387</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01852596257794513</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.03143214286833273</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -546,19 +537,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.6753386380964344</v>
+        <v>0.2255899434957103</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.7333886172009896</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0283353226488051</v>
       </c>
       <c r="F5">
-        <v>0.3246613619035656</v>
+        <v>0.01268611665449509</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -566,19 +557,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.01053189900464389</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.8701968506970117</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.02698627938433926</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.09228497091400525</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -586,19 +577,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0.6233075474039204</v>
+        <v>0.3666699756698283</v>
       </c>
       <c r="D7">
-        <v>0.1454364693858671</v>
+        <v>0.5491365975327455</v>
       </c>
       <c r="E7">
-        <v>0.2312559832102125</v>
+        <v>0.04990483938450553</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.03428858741292071</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -606,16 +597,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>0.6233075474039204</v>
+        <v>0.665636722421267</v>
       </c>
       <c r="D8">
-        <v>0.1454364693858671</v>
+        <v>0.2580981627597926</v>
       </c>
       <c r="E8">
-        <v>0.2312559832102125</v>
+        <v>0.07626511481894054</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -626,19 +617,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.6233075474039204</v>
+        <v>0.4379820665480078</v>
       </c>
       <c r="D9">
-        <v>0.1454364693858671</v>
+        <v>0.4694785473927623</v>
       </c>
       <c r="E9">
-        <v>0.2312559832102125</v>
+        <v>0.06501086585799726</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.02752852020123246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -646,19 +637,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0.4261304908460836</v>
+        <v>0.4441367798599228</v>
       </c>
       <c r="D10">
-        <v>0.5099963733827679</v>
+        <v>0.3744393659934109</v>
       </c>
       <c r="E10">
-        <v>0.06387313577114838</v>
+        <v>0.0644050735709525</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1170187805757138</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -666,19 +657,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>0.4261304908460836</v>
+        <v>0.3193362133150582</v>
       </c>
       <c r="D11">
-        <v>0.5099963733827679</v>
+        <v>0.5546956149147714</v>
       </c>
       <c r="E11">
-        <v>0.06387313577114838</v>
+        <v>0.1139084598878584</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.01205971188231214</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -686,18 +677,38 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0.50562203170395</v>
+      </c>
+      <c r="D12">
+        <v>0.4512158675159272</v>
+      </c>
+      <c r="E12">
+        <v>0.0431621007801227</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>0.4261304908460836</v>
-      </c>
-      <c r="D12">
-        <v>0.5099963733827679</v>
-      </c>
-      <c r="E12">
-        <v>0.06387313577114838</v>
-      </c>
-      <c r="F12">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0.1624601990088694</v>
+      </c>
+      <c r="D13">
+        <v>0.8132757498888581</v>
+      </c>
+      <c r="E13">
+        <v>0.02426405110227242</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -708,7 +719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -736,102 +747,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>0.1003499859916336</v>
+        <v>0.3605762564738771</v>
       </c>
       <c r="D2">
-        <v>0.6443788858083428</v>
+        <v>0.5574700014763981</v>
       </c>
       <c r="E2">
-        <v>0.2552711282000236</v>
+        <v>0.0763183671935062</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>0.00563537485621851</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +772,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -869,39 +800,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.7236896900952252</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2392081879336686</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02425551390122181</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.01284660806988456</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.2865024362954217</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.6836879450220117</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02980961868256649</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -909,19 +840,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.5184680287850673</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.4163491503321772</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.06518282088275558</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -929,39 +860,39 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.3141882758702438</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.6605474775397754</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01981639618841873</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.005447850401562023</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.2568598759208515</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.6895390258600377</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.05360109821911088</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -969,19 +900,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.6559253601089992</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2882136591683537</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0558609807226471</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -989,16 +920,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>0.4190776228049733</v>
+        <v>0.8108905460848412</v>
       </c>
       <c r="D8">
-        <v>0.5809223771950267</v>
+        <v>0.1891094539151588</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1009,19 +940,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.7323658671158727</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.1779369828077599</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0896971500763676</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1029,16 +960,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.7714299607478479</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2285700392521522</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1049,59 +980,59 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.7596800349328485</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1756559775812145</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0515602845440673</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0131037029418697</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.7128105267199996</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.1403826364618404</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.08227568805469489</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.0645311487634652</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.4808454996810909</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.4770717900946745</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.04208271022423451</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1109,19 +1040,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.3058367755965674</v>
+        <v>0.6957578242286829</v>
       </c>
       <c r="D14">
-        <v>0.6445471855862365</v>
+        <v>0.2236820162678014</v>
       </c>
       <c r="E14">
-        <v>0.0496160388171961</v>
+        <v>0.08056015950351567</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1129,19 +1060,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>0.3058367755965674</v>
+        <v>0.8475270353110149</v>
       </c>
       <c r="D15">
-        <v>0.6445471855862365</v>
+        <v>0.1283580034696053</v>
       </c>
       <c r="E15">
-        <v>0.0496160388171961</v>
+        <v>0.0241149612193799</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1149,21 +1080,81 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>0.3058367755965674</v>
+        <v>0.4973199688330368</v>
       </c>
       <c r="D16">
-        <v>0.6445471855862365</v>
+        <v>0.4071193621253184</v>
       </c>
       <c r="E16">
-        <v>0.0496160388171961</v>
+        <v>0.08437489747912612</v>
       </c>
       <c r="F16">
+        <v>0.01118577156251888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>0.8660838637861521</v>
+      </c>
+      <c r="D17">
+        <v>0.1017105875734995</v>
+      </c>
+      <c r="E17">
+        <v>0.03220554864034835</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>0.9255845165932146</v>
+      </c>
+      <c r="D18">
+        <v>0.04550899172814852</v>
+      </c>
+      <c r="E18">
+        <v>0.01723777374349997</v>
+      </c>
+      <c r="F18">
+        <v>0.01166871793513673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>0.8751637330175982</v>
+      </c>
+      <c r="D19">
+        <v>0.06463008325310399</v>
+      </c>
+      <c r="E19">
+        <v>0.06020618372929779</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
     </row>
@@ -1174,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1202,19 +1193,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.6109849491331182</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.3504399005575994</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03857515030928242</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1225,33 +1216,33 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>0.5084460998831797</v>
+        <v>0.1389284526796424</v>
       </c>
       <c r="D3">
-        <v>0.4915539001168203</v>
+        <v>0.7770962716257869</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02956559494558583</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.05440968074898475</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.5328494875980573</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.4671505124019426</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1262,19 +1253,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>0.9022016896552206</v>
+        <v>0.448486830414843</v>
       </c>
       <c r="D5">
-        <v>0.09779831034477936</v>
+        <v>0.5272815330456194</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.02423163653953751</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1282,16 +1273,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>0.5079094701116023</v>
+        <v>0.07808646459031106</v>
       </c>
       <c r="D6">
-        <v>0.4920905298883979</v>
+        <v>0.921913535409689</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1302,19 +1293,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.6683280015228639</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.2918512553295026</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03982074314763352</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1322,19 +1313,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.5370462916961699</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.4434397190123373</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0195139892914926</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1342,79 +1333,79 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>0.5692232389401374</v>
+        <v>0.2290400219628516</v>
       </c>
       <c r="D9">
-        <v>0.4307767610598627</v>
+        <v>0.5782148690627021</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.1429641772008985</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.04978093177354764</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.5692232389401374</v>
+        <v>0.5683882818605211</v>
       </c>
       <c r="D10">
-        <v>0.4307767610598627</v>
+        <v>0.2645865320080541</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1565777249880679</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.01044746114335675</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>0.5692232389401374</v>
+        <v>0.4042210626890028</v>
       </c>
       <c r="D11">
-        <v>0.4307767610598627</v>
+        <v>0.5226942840398715</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.06707184162707072</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.006012811644054996</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.6195880185893339</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.1845302652493898</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.1958817161612764</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1422,42 +1413,22 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.3339541637595115</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.5559098893092997</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.08007043750580958</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>0.03006550942537912</v>
       </c>
     </row>
   </sheetData>
